--- a/data/trans_orig/Q5408-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Provincia-trans_orig.xlsx
@@ -791,19 +791,19 @@
         <v>2712</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7013</v>
+        <v>7198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07662681659653427</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02381878087794356</v>
+        <v>0.02432734972623473</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1981989945606365</v>
+        <v>0.2034062483277618</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>3881</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>927</v>
+        <v>1765</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9421</v>
+        <v>9770</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05200603944715052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01242704229917637</v>
+        <v>0.02365810295805857</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1262603980407279</v>
+        <v>0.1309334744196614</v>
       </c>
     </row>
     <row r="6">
@@ -862,19 +862,19 @@
         <v>32674</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28373</v>
+        <v>28188</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34543</v>
+        <v>34525</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9233731834034657</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8018010054393635</v>
+        <v>0.796593751672236</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9761812191220564</v>
+        <v>0.9756726502737653</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -883,7 +883,7 @@
         <v>38062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32664</v>
+        <v>33535</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>39231</v>
@@ -892,7 +892,7 @@
         <v>0.970201354912784</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8325948083651667</v>
+        <v>0.854796202089587</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -904,19 +904,19 @@
         <v>70736</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>65196</v>
+        <v>64847</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73690</v>
+        <v>72852</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9479939605528495</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8737396019592717</v>
+        <v>0.8690665255803386</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9875729577008235</v>
+        <v>0.9763418970419414</v>
       </c>
     </row>
     <row r="7">
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7010</v>
+        <v>6200</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02989694282952637</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1051693536898635</v>
+        <v>0.09301163652757943</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1076,19 +1076,19 @@
         <v>6241</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2343</v>
+        <v>2105</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12707</v>
+        <v>12227</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06376769493979598</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02393913747781305</v>
+        <v>0.02150872946915787</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1298252734439739</v>
+        <v>0.124921294288462</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1097,19 +1097,19 @@
         <v>8234</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3848</v>
+        <v>3218</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16525</v>
+        <v>14696</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05004593534813442</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02338509448786827</v>
+        <v>0.0195579945062275</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1004394377736509</v>
+        <v>0.08932288907847079</v>
       </c>
     </row>
     <row r="10">
@@ -1126,7 +1126,7 @@
         <v>64661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59644</v>
+        <v>60454</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>66654</v>
@@ -1135,7 +1135,7 @@
         <v>0.9701030571704736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8948306463101364</v>
+        <v>0.9069883634724203</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1147,19 +1147,19 @@
         <v>91634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85168</v>
+        <v>85648</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95532</v>
+        <v>95770</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9362323050602041</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8701747265560268</v>
+        <v>0.8750787057115381</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.976060862522187</v>
+        <v>0.9784912705308422</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>153</v>
@@ -1168,19 +1168,19 @@
         <v>156295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>148004</v>
+        <v>149833</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160681</v>
+        <v>161311</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9499540646518656</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8995605622263489</v>
+        <v>0.9106771109215294</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9766149055121317</v>
+        <v>0.9804420054937725</v>
       </c>
     </row>
     <row r="11">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>3.517171966334041e-06</v>
+        <v>3.956066544932365e-06</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>2.566705934061234e-06</v>
+        <v>2.158129722543071e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5625</v>
+        <v>5736</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03610611838929729</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1104273797896254</v>
+        <v>0.1125983670976639</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1356,19 +1356,19 @@
         <v>5703</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2276</v>
+        <v>2258</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12429</v>
+        <v>12691</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06828262525680487</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02725214669267111</v>
+        <v>0.02703070581318049</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1488151765208666</v>
+        <v>0.1519557767482942</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1377,19 +1377,19 @@
         <v>7542</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3342</v>
+        <v>3240</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14427</v>
+        <v>14082</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05609275052732177</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02485773136722604</v>
+        <v>0.02409716388844321</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1072930628719626</v>
+        <v>0.1047258199789972</v>
       </c>
     </row>
     <row r="14">
@@ -1406,7 +1406,7 @@
         <v>49101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45315</v>
+        <v>45204</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>50940</v>
@@ -1415,7 +1415,7 @@
         <v>0.9638938816107027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8895726202103751</v>
+        <v>0.8874016329023359</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1427,19 +1427,19 @@
         <v>77818</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71092</v>
+        <v>70829</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81245</v>
+        <v>81263</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9317167101832656</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8511841692985018</v>
+        <v>0.8480431693301701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9727471911002916</v>
+        <v>0.9729692942845726</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>128</v>
@@ -1448,19 +1448,19 @@
         <v>126919</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120034</v>
+        <v>120379</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>131119</v>
+        <v>131221</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9439068366772527</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8927065671964544</v>
+        <v>0.8952740609291877</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9751416334117863</v>
+        <v>0.9759023595577181</v>
       </c>
     </row>
     <row r="15">
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4532</v>
+        <v>4777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08222656094675734</v>
+        <v>0.08666800521116751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3409</v>
+        <v>3366</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006417520832617277</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02633408361886744</v>
+        <v>0.02600866008745214</v>
       </c>
     </row>
     <row r="17">
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5387</v>
+        <v>5209</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01425581255063412</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07248979953236311</v>
+        <v>0.07009806102241356</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5962</v>
+        <v>5330</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008184754746640941</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04606227594506952</v>
+        <v>0.0411812015299498</v>
       </c>
     </row>
     <row r="18">
@@ -1678,7 +1678,7 @@
         <v>54291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50590</v>
+        <v>50345</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>55122</v>
@@ -1687,7 +1687,7 @@
         <v>0.9849306369691611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9177734390532447</v>
+        <v>0.9133319947888321</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>73254</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68926</v>
+        <v>69104</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>74313</v>
@@ -1708,7 +1708,7 @@
         <v>0.9857441874493659</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9275102004676371</v>
+        <v>0.9299019389775864</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         <v>127546</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>122891</v>
+        <v>122610</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>129436</v>
@@ -1729,7 +1729,7 @@
         <v>0.9853977244207418</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9494337799802344</v>
+        <v>0.9472653704840823</v>
       </c>
       <c r="W18" s="6" t="n">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5282</v>
+        <v>4626</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02766554269098331</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1280623822853061</v>
+        <v>0.1121582546696013</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5772</v>
+        <v>5264</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01616434424584546</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08175877413052045</v>
+        <v>0.07456716074730546</v>
       </c>
     </row>
     <row r="21">
@@ -1887,19 +1887,19 @@
         <v>4281</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1668</v>
+        <v>1631</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8903</v>
+        <v>8473</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1458809684774247</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05683091757723341</v>
+        <v>0.05556458943773546</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3033573235903146</v>
+        <v>0.2887256755050336</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1908,19 +1908,19 @@
         <v>3205</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8144</v>
+        <v>7929</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07771025707853205</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0</v>
+        <v>0.02179034660309171</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1974380371631383</v>
+        <v>0.1922332039123466</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -1929,19 +1929,19 @@
         <v>7486</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3561</v>
+        <v>3648</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14103</v>
+        <v>13951</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1060503799780701</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05044426925991882</v>
+        <v>0.0516824756376929</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1997807013786272</v>
+        <v>0.1976188322113657</v>
       </c>
     </row>
     <row r="22">
@@ -1958,19 +1958,19 @@
         <v>25066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20444</v>
+        <v>20874</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27679</v>
+        <v>27716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8541190315225753</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6966426764096854</v>
+        <v>0.7112743244949663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9431690824227665</v>
+        <v>0.9444354105622645</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -1979,19 +1979,19 @@
         <v>36900</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31578</v>
+        <v>30696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40112</v>
+        <v>40098</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8946242002304846</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7656095551427021</v>
+        <v>0.7442281645137536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9725081034750598</v>
+        <v>0.9721703309257469</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -2000,19 +2000,19 @@
         <v>61965</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>55064</v>
+        <v>55155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66361</v>
+        <v>66401</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8777852757760845</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7800194840409155</v>
+        <v>0.7813054854770816</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9400478664200425</v>
+        <v>0.9406222577439227</v>
       </c>
     </row>
     <row r="23">
@@ -2151,19 +2151,19 @@
         <v>2741</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6661</v>
+        <v>6689</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05808144585725518</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01762793213702547</v>
+        <v>0.01777877361238174</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.141130414467866</v>
+        <v>0.1417219459020314</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2172,19 +2172,19 @@
         <v>7243</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2866</v>
+        <v>2532</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14232</v>
+        <v>14087</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1030128421304742</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04076882605945494</v>
+        <v>0.03600887740065077</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.202421066406483</v>
+        <v>0.2003557747840858</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2193,19 +2193,19 @@
         <v>9984</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4615</v>
+        <v>4713</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17893</v>
+        <v>16759</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08496599341221961</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03927737164431393</v>
+        <v>0.04011172859217668</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.152275869852301</v>
+        <v>0.1426249186900808</v>
       </c>
     </row>
     <row r="26">
@@ -2222,19 +2222,19 @@
         <v>44455</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40535</v>
+        <v>40507</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46364</v>
+        <v>46357</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9419185541427448</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8588695855321334</v>
+        <v>0.8582780540979684</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9823720678629745</v>
+        <v>0.9822212263876182</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>61</v>
@@ -2243,19 +2243,19 @@
         <v>63066</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56077</v>
+        <v>56222</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67443</v>
+        <v>67777</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8969871578695258</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7975789335935169</v>
+        <v>0.7996442252159139</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9592311739405436</v>
+        <v>0.9639911225993492</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>107</v>
@@ -2264,19 +2264,19 @@
         <v>107522</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>99613</v>
+        <v>100747</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>112891</v>
+        <v>112793</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9150340065877803</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8477241301476984</v>
+        <v>0.8573750813099192</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.960722628355686</v>
+        <v>0.9598882714078233</v>
       </c>
     </row>
     <row r="27">
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4647</v>
+        <v>4960</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007914843998951463</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04387212315636137</v>
+        <v>0.04682816184850948</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6698</v>
+        <v>6428</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01725170467702855</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05719088181145162</v>
+        <v>0.05488761400732271</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2410,19 +2410,19 @@
         <v>2859</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7954</v>
+        <v>8027</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01281754986199601</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003797969181055617</v>
+        <v>0.003756887233179674</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03565933279299863</v>
+        <v>0.03598639616303982</v>
       </c>
     </row>
     <row r="29">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4784</v>
+        <v>4879</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008968697454742899</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04516679111439043</v>
+        <v>0.04606039042939469</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6596</v>
+        <v>5695</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008845973945760473</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0563201955778888</v>
+        <v>0.04862366621407744</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6997</v>
+        <v>6787</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00890425638747558</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03137160154430494</v>
+        <v>0.03042728656950941</v>
       </c>
     </row>
     <row r="30">
@@ -2510,7 +2510,7 @@
         <v>104140</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>99890</v>
+        <v>100239</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>105928</v>
@@ -2519,7 +2519,7 @@
         <v>0.9831164585463057</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9430029881856988</v>
+        <v>0.9462966872282117</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -2531,19 +2531,19 @@
         <v>114064</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108622</v>
+        <v>108857</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>116230</v>
+        <v>116225</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.973902321377211</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9274308600504498</v>
+        <v>0.9294444080014748</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9923946057601829</v>
+        <v>0.9923493583786546</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>220</v>
@@ -2552,19 +2552,19 @@
         <v>218204</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>211283</v>
+        <v>212257</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>221212</v>
+        <v>221216</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9782781937505284</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9472475640684641</v>
+        <v>0.951615307310925</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9917654427231493</v>
+        <v>0.9917841585894787</v>
       </c>
     </row>
     <row r="31">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7829</v>
+        <v>8649</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01645558512483832</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05109710382701756</v>
+        <v>0.05644700473000816</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8990</v>
+        <v>9024</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00951052410123792</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03391073506574175</v>
+        <v>0.03403833738726521</v>
       </c>
     </row>
     <row r="33">
@@ -2719,19 +2719,19 @@
         <v>2925</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8165</v>
+        <v>8094</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02613992187361457</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.008275581269362542</v>
+        <v>0.008241897617605656</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07297353134863994</v>
+        <v>0.07233723779970301</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>5</v>
@@ -2740,19 +2740,19 @@
         <v>6068</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1854</v>
+        <v>2235</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>13232</v>
+        <v>13168</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03960146044471165</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01210223219198297</v>
+        <v>0.01458637970888454</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08635942095217007</v>
+        <v>0.0859418868707879</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>8</v>
@@ -2761,19 +2761,19 @@
         <v>8993</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3819</v>
+        <v>3997</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>16747</v>
+        <v>17007</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03392003337064774</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01440589057889867</v>
+        <v>0.01507478315549914</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0631691108514835</v>
+        <v>0.06414823415177592</v>
       </c>
     </row>
     <row r="34">
@@ -2790,19 +2790,19 @@
         <v>108968</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>103728</v>
+        <v>103799</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>110967</v>
+        <v>110971</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9738600781263854</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9270264686513591</v>
+        <v>0.9276627622002974</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9917244187306374</v>
+        <v>0.9917581023823944</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>137</v>
@@ -2811,19 +2811,19 @@
         <v>144636</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>137044</v>
+        <v>136437</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>149934</v>
+        <v>149545</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9439429544304501</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8943983730521745</v>
+        <v>0.8904334375252723</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9785230827687642</v>
+        <v>0.9759834153638516</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>250</v>
@@ -2832,19 +2832,19 @@
         <v>253604</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>244901</v>
+        <v>244667</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>259605</v>
+        <v>259391</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9565694425281144</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9237440208681816</v>
+        <v>0.9228589467978499</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9792039761334187</v>
+        <v>0.9783984281191352</v>
       </c>
     </row>
     <row r="35">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5886</v>
+        <v>6204</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003321736080943579</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01171345244440895</v>
+        <v>0.0123469855247412</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -2957,19 +2957,19 @@
         <v>5683</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2267</v>
+        <v>2027</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12833</v>
+        <v>12102</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.008396488275372838</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003348683294825694</v>
+        <v>0.002994304515040671</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01896009007567728</v>
+        <v>0.01787959421071805</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -2978,19 +2978,19 @@
         <v>7352</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3152</v>
+        <v>3240</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>14549</v>
+        <v>16262</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006234296162276147</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.00267312817762913</v>
+        <v>0.002747762851244285</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0123371177699915</v>
+        <v>0.01378927596309922</v>
       </c>
     </row>
     <row r="37">
@@ -3007,19 +3007,19 @@
         <v>17441</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10793</v>
+        <v>11197</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>26917</v>
+        <v>26246</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03471037981447057</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02147977295699617</v>
+        <v>0.02228341456605352</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05357019176056549</v>
+        <v>0.05223529080375977</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>28</v>
@@ -3028,19 +3028,19 @@
         <v>31725</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>21358</v>
+        <v>22058</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>44840</v>
+        <v>44987</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04687161659798267</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03155587194123231</v>
+        <v>0.03259005343392191</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06624823102259059</v>
+        <v>0.06646577657628658</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>47</v>
@@ -3049,19 +3049,19 @@
         <v>49165</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>37577</v>
+        <v>34743</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>66106</v>
+        <v>63138</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04169009654510675</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03186346394981429</v>
+        <v>0.02946015995823201</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05605529266647599</v>
+        <v>0.05353812495604463</v>
       </c>
     </row>
     <row r="38">
@@ -3078,19 +3078,19 @@
         <v>483356</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>473329</v>
+        <v>474315</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>490313</v>
+        <v>489966</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9619678841045859</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9420111361109589</v>
+        <v>0.9439736203686379</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9758133276603055</v>
+        <v>0.9751230505364583</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>627</v>
@@ -3099,19 +3099,19 @@
         <v>639434</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>625539</v>
+        <v>625202</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>650815</v>
+        <v>649307</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9447318951266445</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9242026352048192</v>
+        <v>0.9237041200183478</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9615463125564009</v>
+        <v>0.9593184737954652</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1129</v>
@@ -3120,19 +3120,19 @@
         <v>1122790</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1105355</v>
+        <v>1108311</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1135611</v>
+        <v>1137175</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9520756072926171</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9372912312527529</v>
+        <v>0.9397978072624931</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9629469883816701</v>
+        <v>0.9642730874469893</v>
       </c>
     </row>
     <row r="39">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5289</v>
+        <v>4241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02244690066868337</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.119441077041386</v>
+        <v>0.09578201105574441</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5148</v>
+        <v>5202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01066774607456512</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05525493223591803</v>
+        <v>0.05583454260118022</v>
       </c>
     </row>
     <row r="5">
@@ -3531,19 +3531,19 @@
         <v>3986</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>984</v>
+        <v>1005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9017</v>
+        <v>9458</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09000735156075224</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02222066916348146</v>
+        <v>0.02270046370025426</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.203621653239797</v>
+        <v>0.2135988252817381</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3552,19 +3552,19 @@
         <v>5515</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2167</v>
+        <v>2187</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11105</v>
+        <v>12049</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1128022981215372</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04431502968611832</v>
+        <v>0.04472024832496249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2271189112561758</v>
+        <v>0.246426914450529</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -3573,19 +3573,19 @@
         <v>9501</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4848</v>
+        <v>4165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17431</v>
+        <v>16376</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1019691454612685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05202856188272358</v>
+        <v>0.04469809994733216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1870738121131041</v>
+        <v>0.1757584771346438</v>
       </c>
     </row>
     <row r="6">
@@ -3602,19 +3602,19 @@
         <v>39301</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33460</v>
+        <v>33620</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42463</v>
+        <v>42387</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8875457477705644</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7556225565799282</v>
+        <v>0.7592448168237109</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9589552583396006</v>
+        <v>0.9572323972110582</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -3623,19 +3623,19 @@
         <v>43379</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37789</v>
+        <v>36845</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46727</v>
+        <v>46707</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8871977018784628</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7728810887438242</v>
+        <v>0.753573085549471</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9556849703138817</v>
+        <v>0.9552797516750375</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -3644,19 +3644,19 @@
         <v>82680</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75051</v>
+        <v>75550</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87754</v>
+        <v>88203</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8873631084641664</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8054828124311679</v>
+        <v>0.8108382548645694</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9418147508852902</v>
+        <v>0.9466356725916114</v>
       </c>
     </row>
     <row r="7">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7903</v>
+        <v>7748</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0268959715889703</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09978710606800741</v>
+        <v>0.09782543319586573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -3769,19 +3769,19 @@
         <v>4467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1119</v>
+        <v>1136</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11848</v>
+        <v>12740</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04375209611102263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01095702186287866</v>
+        <v>0.0111257557124715</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1160493689952795</v>
+        <v>0.1247913483226106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -3790,19 +3790,19 @@
         <v>6597</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2396</v>
+        <v>2382</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14886</v>
+        <v>14154</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03638815910546602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01321531883900746</v>
+        <v>0.01313829823104611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0821096322014329</v>
+        <v>0.07806959648814693</v>
       </c>
     </row>
     <row r="9">
@@ -3819,19 +3819,19 @@
         <v>4200</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11612</v>
+        <v>12480</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05302535471857715</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01284360392434615</v>
+        <v>0.01299486094839104</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1466136227687075</v>
+        <v>0.1575660309377306</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3840,19 +3840,19 @@
         <v>7856</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15577</v>
+        <v>14405</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07695209020342292</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03280076235076057</v>
+        <v>0.03281111905816368</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1525759452217895</v>
+        <v>0.1410922707145494</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -3861,19 +3861,19 @@
         <v>12056</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5652</v>
+        <v>5769</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20973</v>
+        <v>21275</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06649921459559802</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03117687583961588</v>
+        <v>0.03182124682193267</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1156849861274599</v>
+        <v>0.1173502735104237</v>
       </c>
     </row>
     <row r="10">
@@ -3890,19 +3890,19 @@
         <v>72873</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65321</v>
+        <v>65016</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77134</v>
+        <v>77094</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9200786736924526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8247336539519424</v>
+        <v>0.8208804944042414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9738786049899135</v>
+        <v>0.9733682768456601</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -3911,19 +3911,19 @@
         <v>89770</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80765</v>
+        <v>81578</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95275</v>
+        <v>96208</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8792958136855544</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7910884725342463</v>
+        <v>0.7990523578159908</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9332173493983594</v>
+        <v>0.9423541638662194</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -3932,19 +3932,19 @@
         <v>162643</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151426</v>
+        <v>152196</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>170670</v>
+        <v>170761</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.897112626298936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8352406347083916</v>
+        <v>0.8394904354356881</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9413882993488779</v>
+        <v>0.9418905867725159</v>
       </c>
     </row>
     <row r="11">
@@ -4039,16 +4039,16 @@
         <v>955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7283</v>
+        <v>8193</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05359619057167883</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01713217470897211</v>
+        <v>0.01712644519571692</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1306511504129451</v>
+        <v>0.1469890270518139</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -4057,19 +4057,19 @@
         <v>5461</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2153</v>
+        <v>2158</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11975</v>
+        <v>11075</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06829425880074531</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02691825720504891</v>
+        <v>0.0269861885302041</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1497479752711605</v>
+        <v>0.1384896549848673</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -4078,19 +4078,19 @@
         <v>8449</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4147</v>
+        <v>3299</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16059</v>
+        <v>16220</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06225710898161523</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03055685411528132</v>
+        <v>0.02431255088595221</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.118333691542188</v>
+        <v>0.1195201682647792</v>
       </c>
     </row>
     <row r="13">
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6487</v>
+        <v>6375</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03723762382252284</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1163709232479347</v>
+        <v>0.1143682318630769</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4128,19 +4128,19 @@
         <v>5397</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2079</v>
+        <v>2141</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11480</v>
+        <v>11949</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06749313389905041</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02599418266457413</v>
+        <v>0.02677860936245884</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1435524738300572</v>
+        <v>0.1494184713909517</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -4149,19 +4149,19 @@
         <v>7473</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3185</v>
+        <v>3254</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14043</v>
+        <v>14801</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0550658513242574</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02346913946542132</v>
+        <v>0.02397915472567612</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1034764704024679</v>
+        <v>0.1090632719176185</v>
       </c>
     </row>
     <row r="14">
@@ -4178,19 +4178,19 @@
         <v>50679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45221</v>
+        <v>45123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53803</v>
+        <v>53807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9091661856057983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8112527774870421</v>
+        <v>0.8094933703478503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9652146450610825</v>
+        <v>0.9652818210288778</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -4199,19 +4199,19 @@
         <v>69109</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61225</v>
+        <v>61682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74479</v>
+        <v>74484</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8642126073002043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7656166758633056</v>
+        <v>0.7713326930833004</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9313574619151146</v>
+        <v>0.9314280251369889</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -4220,19 +4220,19 @@
         <v>119788</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>110520</v>
+        <v>110262</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>126201</v>
+        <v>126004</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8826770396941274</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8143831913803569</v>
+        <v>0.8124857109878865</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.929931420207308</v>
+        <v>0.9284792501429683</v>
       </c>
     </row>
     <row r="15">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7407</v>
+        <v>6695</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03331429869403105</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1156840597070224</v>
+        <v>0.1045580919609511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7343</v>
+        <v>6440</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02476334968838572</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08580374489650081</v>
+        <v>0.07525689003295206</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -4413,19 +4413,19 @@
         <v>4252</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1135</v>
+        <v>1163</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10067</v>
+        <v>10692</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02842304315615217</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007583696069812328</v>
+        <v>0.007770770339837748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06728945292737459</v>
+        <v>0.07146733084969562</v>
       </c>
     </row>
     <row r="18">
@@ -4442,7 +4442,7 @@
         <v>61895</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>56621</v>
+        <v>57333</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>64028</v>
@@ -4451,7 +4451,7 @@
         <v>0.966685701305969</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.884315940292978</v>
+        <v>0.895441908039049</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>83455</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>78231</v>
+        <v>79134</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>85574</v>
@@ -4472,7 +4472,7 @@
         <v>0.9752366503116143</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9141962551034991</v>
+        <v>0.9247431099670479</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -4484,19 +4484,19 @@
         <v>145350</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>139535</v>
+        <v>138910</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>148467</v>
+        <v>148439</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9715769568438478</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9327105470726255</v>
+        <v>0.9285326691503044</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9924163039301878</v>
+        <v>0.9922292296601622</v>
       </c>
     </row>
     <row r="19">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6074</v>
+        <v>6079</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03986398569660424</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1218415200338647</v>
+        <v>0.1219366195088377</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8085</v>
+        <v>6116</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02439528820046017</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09924084524530309</v>
+        <v>0.07507645748017329</v>
       </c>
     </row>
     <row r="21">
@@ -4651,19 +4651,19 @@
         <v>3292</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8076</v>
+        <v>8203</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1041290401066137</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03191189078939892</v>
+        <v>0.03154838439733654</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2554772450634937</v>
+        <v>0.2594989778386382</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -4672,19 +4672,19 @@
         <v>3208</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>493</v>
+        <v>969</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7575</v>
+        <v>7880</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06434669301747924</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.009880363594686968</v>
+        <v>0.01943249341060828</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1519372582752159</v>
+        <v>0.1580485560237125</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -4693,19 +4693,19 @@
         <v>6500</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2244</v>
+        <v>2300</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13000</v>
+        <v>13071</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07978371172132773</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02754591297285186</v>
+        <v>0.02823157701715916</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1595680014232337</v>
+        <v>0.1604489050593811</v>
       </c>
     </row>
     <row r="22">
@@ -4722,19 +4722,19 @@
         <v>28320</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23536</v>
+        <v>23409</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30603</v>
+        <v>30615</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8958709598933863</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7445227549365049</v>
+        <v>0.7405010221613617</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9680881092106011</v>
+        <v>0.9684516156026634</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -4743,19 +4743,19 @@
         <v>44660</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39327</v>
+        <v>39479</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47861</v>
+        <v>47873</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8957893212859165</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7888368658123547</v>
+        <v>0.7918842755050519</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9599970802722655</v>
+        <v>0.9602413496416572</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -4764,19 +4764,19 @@
         <v>72980</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65940</v>
+        <v>66096</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77346</v>
+        <v>78132</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8958210000782121</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8094042104869441</v>
+        <v>0.8113163607369085</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9494112349787878</v>
+        <v>0.9590617554168736</v>
       </c>
     </row>
     <row r="23">
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5331</v>
+        <v>5287</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02041989866142973</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1029967102865826</v>
+        <v>0.1021620168367442</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5261</v>
+        <v>5294</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01504446007313578</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07492376347822936</v>
+        <v>0.07540414142224226</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7372</v>
+        <v>7320</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01732548640606364</v>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06044322368758622</v>
+        <v>0.06001477548861455</v>
       </c>
     </row>
     <row r="25">
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7472</v>
+        <v>6460</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04154402024663784</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.144370157132598</v>
+        <v>0.1248208748201069</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -4960,19 +4960,19 @@
         <v>6375</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3069</v>
+        <v>3135</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12048</v>
+        <v>12536</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09080078940712574</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04371638243161959</v>
+        <v>0.04465118454396519</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1715899041241125</v>
+        <v>0.1785379524729491</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -4981,19 +4981,19 @@
         <v>8525</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4119</v>
+        <v>4196</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15854</v>
+        <v>15184</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06989905540263013</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03377081279558203</v>
+        <v>0.03439853808781659</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.129987627454185</v>
+        <v>0.1244891816073547</v>
       </c>
     </row>
     <row r="26">
@@ -5010,19 +5010,19 @@
         <v>48549</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43141</v>
+        <v>43225</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50700</v>
+        <v>50697</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9380360810919325</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8335529761364406</v>
+        <v>0.8351688296362166</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9795998870154132</v>
+        <v>0.9795434632094212</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -5031,19 +5031,19 @@
         <v>62780</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56730</v>
+        <v>56500</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66923</v>
+        <v>66922</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8941547505197385</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8079771256660394</v>
+        <v>0.8047077199350419</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9531506070616255</v>
+        <v>0.9531432776861085</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>109</v>
@@ -5052,19 +5052,19 @@
         <v>111329</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>103857</v>
+        <v>103519</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>116686</v>
+        <v>116635</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9127754581913062</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8515062031783405</v>
+        <v>0.8487371214036102</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9566952575467293</v>
+        <v>0.9562738506722455</v>
       </c>
     </row>
     <row r="27">
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10964</v>
+        <v>11315</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02940395504703209</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09766063153360394</v>
+        <v>0.100786668584652</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8224</v>
+        <v>7228</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01426788094361966</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05793330967617345</v>
+        <v>0.05091702966338919</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -5198,19 +5198,19 @@
         <v>5326</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14443</v>
+        <v>15614</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02095180336772877</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007793591351453991</v>
+        <v>0.007819424700526661</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05681113305784569</v>
+        <v>0.06141896764486478</v>
       </c>
     </row>
     <row r="29">
@@ -5227,19 +5227,19 @@
         <v>3937</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>964</v>
+        <v>1007</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9824</v>
+        <v>10203</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03506529813508324</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00859038296455991</v>
+        <v>0.008972062586914716</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08750691170197776</v>
+        <v>0.09088314104470017</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -5248,19 +5248,19 @@
         <v>10016</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4997</v>
+        <v>5060</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19326</v>
+        <v>18116</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07055226689411044</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03519652752055</v>
+        <v>0.03564100352145292</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1361344685029474</v>
+        <v>0.1276086790762982</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -5269,19 +5269,19 @@
         <v>13952</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8068</v>
+        <v>7161</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22606</v>
+        <v>21969</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05488161513648948</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03173490022789155</v>
+        <v>0.02816725620589041</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08892283793470472</v>
+        <v>0.08641677183779109</v>
       </c>
     </row>
     <row r="30">
@@ -5298,19 +5298,19 @@
         <v>105025</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>96567</v>
+        <v>96529</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>109397</v>
+        <v>109228</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9355307468178846</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8601854729583628</v>
+        <v>0.8598492016539351</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9744726285005432</v>
+        <v>0.9729609862964108</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>118</v>
@@ -5319,19 +5319,19 @@
         <v>129921</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>120818</v>
+        <v>121910</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>135920</v>
+        <v>135581</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9151798521622699</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8510606859842871</v>
+        <v>0.8587542955216683</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9574413442042901</v>
+        <v>0.9550480800256349</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>212</v>
@@ -5340,19 +5340,19 @@
         <v>234947</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>223573</v>
+        <v>223750</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>242221</v>
+        <v>242120</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9241665814957818</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8794256221088661</v>
+        <v>0.8801210212396215</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9527771780194397</v>
+        <v>0.9523797089252939</v>
       </c>
     </row>
     <row r="31">
@@ -5460,16 +5460,16 @@
         <v>1118</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10027</v>
+        <v>10833</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02650145945203217</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006801503883557241</v>
+        <v>0.006799960231537788</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0609869025139648</v>
+        <v>0.06588668786868064</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -5478,19 +5478,19 @@
         <v>4357</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1098</v>
+        <v>1142</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9974</v>
+        <v>10750</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01527965477506577</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003849880147587782</v>
+        <v>0.004005042789176299</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.034974084633252</v>
+        <v>0.03769643843448291</v>
       </c>
     </row>
     <row r="33">
@@ -5507,19 +5507,19 @@
         <v>4450</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1165</v>
+        <v>1101</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>10270</v>
+        <v>10461</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03685306731268802</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.009649083806689964</v>
+        <v>0.009119704954227871</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08504715497061036</v>
+        <v>0.08663326121615035</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>5</v>
@@ -5528,19 +5528,19 @@
         <v>5624</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2014</v>
+        <v>2082</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11859</v>
+        <v>13148</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03420756082098712</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0122475574792398</v>
+        <v>0.01266008213773206</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07212714065297085</v>
+        <v>0.07996670917280668</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>9</v>
@@ -5549,19 +5549,19 @@
         <v>10074</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4497</v>
+        <v>5344</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>17552</v>
+        <v>18127</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03532777675382087</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01577015885040529</v>
+        <v>0.01873968652689604</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06154969479284342</v>
+        <v>0.06356418123171462</v>
       </c>
     </row>
     <row r="34">
@@ -5578,19 +5578,19 @@
         <v>116302</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>110482</v>
+        <v>110291</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>119587</v>
+        <v>119651</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.963146932687312</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9149528450293896</v>
+        <v>0.9133667387838497</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9903509161933097</v>
+        <v>0.9908802950457721</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>142</v>
@@ -5599,19 +5599,19 @@
         <v>154435</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>147641</v>
+        <v>146347</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>159886</v>
+        <v>160044</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9392909797269807</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8979683560165693</v>
+        <v>0.8900978758016654</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.972441221944772</v>
+        <v>0.9734007107334092</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>244</v>
@@ -5620,19 +5620,19 @@
         <v>270737</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>261839</v>
+        <v>261672</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>277309</v>
+        <v>277273</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9493925684711133</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9181904035902863</v>
+        <v>0.917604355027983</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9724360597163938</v>
+        <v>0.9723111387901425</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>10470</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5231</v>
+        <v>5234</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19502</v>
+        <v>19239</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01870784846397888</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0093478597519117</v>
+        <v>0.00935240345740568</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03484681146896472</v>
+        <v>0.03437763915940308</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>17</v>
@@ -5745,19 +5745,19 @@
         <v>19355</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>11812</v>
+        <v>11881</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>30552</v>
+        <v>30071</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02605018319372777</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01589847652536852</v>
+        <v>0.0159915189884634</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04112063424269925</v>
+        <v>0.04047443297389419</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>26</v>
@@ -5766,19 +5766,19 @@
         <v>29824</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>18789</v>
+        <v>19779</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>43307</v>
+        <v>43129</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02289571944054244</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01442438885814439</v>
+        <v>0.01518396196313548</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03324609062771073</v>
+        <v>0.03310958248231983</v>
       </c>
     </row>
     <row r="37">
@@ -5795,19 +5795,19 @@
         <v>26223</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>17758</v>
+        <v>17218</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>37241</v>
+        <v>38520</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04685648781833272</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03173138924183686</v>
+        <v>0.03076661652544018</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06654568409916378</v>
+        <v>0.06883080827416654</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>42</v>
@@ -5816,19 +5816,19 @@
         <v>46111</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>32871</v>
+        <v>33164</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>60905</v>
+        <v>60314</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06206314365299925</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04424225637169368</v>
+        <v>0.04463615161719475</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08197406524080343</v>
+        <v>0.08117955660891571</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>66</v>
@@ -5837,19 +5837,19 @@
         <v>72334</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>55480</v>
+        <v>55928</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>91427</v>
+        <v>91242</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05552995681213448</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04259103665226126</v>
+        <v>0.04293553236162992</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07018755122308599</v>
+        <v>0.07004517577434112</v>
       </c>
     </row>
     <row r="38">
@@ -5866,19 +5866,19 @@
         <v>522945</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>509137</v>
+        <v>509255</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>533009</v>
+        <v>532930</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9344356637176884</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.909763676361668</v>
+        <v>0.909973999572</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.952418452264843</v>
+        <v>0.9522775903799804</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>635</v>
@@ -5887,19 +5887,19 @@
         <v>677509</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>660113</v>
+        <v>661567</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>693565</v>
+        <v>694105</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.911886673153273</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.888473170846284</v>
+        <v>0.8904300392702643</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9334971330009076</v>
+        <v>0.9342233285922682</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1106</v>
@@ -5908,19 +5908,19 @@
         <v>1200454</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1179018</v>
+        <v>1179295</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1220954</v>
+        <v>1218334</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9215743237473231</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9051179526849548</v>
+        <v>0.9053307153567011</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9373118028376732</v>
+        <v>0.9353006077508249</v>
       </c>
     </row>
     <row r="39">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4253</v>
+        <v>4018</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02060718830642581</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1093323437741979</v>
+        <v>0.1032963828548583</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3374</v>
+        <v>4153</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009078744909996765</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03821953359296726</v>
+        <v>0.04704493314406128</v>
       </c>
     </row>
     <row r="5">
@@ -6319,19 +6319,19 @@
         <v>3188</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8126</v>
+        <v>7406</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08196587962803042</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02049819885653405</v>
+        <v>0.02047076998135779</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2089247260390207</v>
+        <v>0.1903947786533411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7604</v>
+        <v>7965</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04713674037897968</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1539570096778931</v>
+        <v>0.1612734845644077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -6361,19 +6361,19 @@
         <v>5516</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2319</v>
+        <v>2092</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11351</v>
+        <v>11681</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06248113700286494</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02627064252820061</v>
+        <v>0.02369638383050055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1285697674636686</v>
+        <v>0.1323064182002996</v>
       </c>
     </row>
     <row r="6">
@@ -6390,19 +6390,19 @@
         <v>34906</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29882</v>
+        <v>30855</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37321</v>
+        <v>37342</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8974269320655438</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7682472976288063</v>
+        <v>0.7932806794788702</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9595128531208615</v>
+        <v>0.9600416033690953</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>41</v>
@@ -6411,7 +6411,7 @@
         <v>47063</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41787</v>
+        <v>41426</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>49391</v>
@@ -6420,7 +6420,7 @@
         <v>0.9528632596210204</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8460429903221067</v>
+        <v>0.8387265154355925</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -6432,19 +6432,19 @@
         <v>81969</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75910</v>
+        <v>75494</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85705</v>
+        <v>85566</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9284401180871383</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8598060233779147</v>
+        <v>0.8551019715474393</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9707575642638374</v>
+        <v>0.9691833420911017</v>
       </c>
     </row>
     <row r="7">
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5971</v>
+        <v>6789</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01169017170263493</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05181958469769304</v>
+        <v>0.05891596731638929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8358</v>
+        <v>6743</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006651277175602036</v>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04126977341059864</v>
+        <v>0.03329703282665852</v>
       </c>
     </row>
     <row r="9">
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6507</v>
+        <v>6435</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02180236047241471</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07453750771499169</v>
+        <v>0.07371144136734276</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -6620,19 +6620,19 @@
         <v>8037</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3870</v>
+        <v>3949</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16433</v>
+        <v>16196</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06975105233669354</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03358551816148378</v>
+        <v>0.03427024205620548</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1426104946607137</v>
+        <v>0.1405572091833808</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -6641,19 +6641,19 @@
         <v>9941</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4419</v>
+        <v>4607</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17970</v>
+        <v>20341</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04908340029879887</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02181963982520834</v>
+        <v>0.02274573143984398</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08873131644557583</v>
+        <v>0.1004390748957721</v>
       </c>
     </row>
     <row r="10">
@@ -6670,7 +6670,7 @@
         <v>85392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80788</v>
+        <v>80860</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>87295</v>
@@ -6679,7 +6679,7 @@
         <v>0.9781976395275853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9254624922850093</v>
+        <v>0.9262885586326572</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -6691,19 +6691,19 @@
         <v>105844</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97629</v>
+        <v>97526</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111208</v>
+        <v>111200</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9185587759606715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8472691774494013</v>
+        <v>0.8463720865256266</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9651135168810957</v>
+        <v>0.9650437610753895</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>176</v>
@@ -6712,19 +6712,19 @@
         <v>191235</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>182425</v>
+        <v>180845</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197221</v>
+        <v>197244</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9442653225255991</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9007617637664581</v>
+        <v>0.8929613599725336</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9738186617349308</v>
+        <v>0.9739321686731167</v>
       </c>
     </row>
     <row r="11">
@@ -6829,19 +6829,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -6850,19 +6850,19 @@
         <v>4477</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13389</v>
+        <v>11892</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03121300164974522</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008588642653284776</v>
+        <v>0.008524931331646078</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09334211302731155</v>
+        <v>0.08290147678397584</v>
       </c>
     </row>
     <row r="13">
@@ -6879,19 +6879,19 @@
         <v>3685</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>828</v>
+        <v>1105</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9000</v>
+        <v>8464</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05799452574419067</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01302783790160643</v>
+        <v>0.01738824383925392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1416234427907849</v>
+        <v>0.1331872646659388</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -6913,19 +6913,19 @@
         <v>3685</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>875</v>
+        <v>810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9164</v>
+        <v>8930</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02569189027187788</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006101462218100412</v>
+        <v>0.005647423988756987</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0638885352133665</v>
+        <v>0.06225601108797514</v>
       </c>
     </row>
     <row r="14">
@@ -6942,19 +6942,19 @@
         <v>59861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54546</v>
+        <v>55082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62718</v>
+        <v>62441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9420054742558094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8583765572092147</v>
+        <v>0.8668127353340611</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9869721620983934</v>
+        <v>0.9826117561607459</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -6963,19 +6963,19 @@
         <v>75420</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67834</v>
+        <v>67923</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78667</v>
+        <v>78663</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9439617479731287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8490142815936794</v>
+        <v>0.8501278888495246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9846017472934825</v>
+        <v>0.9845503600439341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>134</v>
@@ -6984,19 +6984,19 @@
         <v>135280</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126749</v>
+        <v>127796</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>139763</v>
+        <v>139750</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9430951080783769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8836215850535777</v>
+        <v>0.8909164440546729</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.974342269505347</v>
+        <v>0.9742556783708144</v>
       </c>
     </row>
     <row r="15">
@@ -7088,19 +7088,19 @@
         <v>2957</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8150</v>
+        <v>7911</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04569633249737833</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01264143367229024</v>
+        <v>0.01277465808128033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1259359683943621</v>
+        <v>0.1222520854262153</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -7122,19 +7122,19 @@
         <v>2957</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8529</v>
+        <v>8526</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01892106422729147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005247484566219548</v>
+        <v>0.005142205651610615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0545729366632788</v>
+        <v>0.05455675696354846</v>
       </c>
     </row>
     <row r="17">
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4181</v>
+        <v>4165</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01278661573433639</v>
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06461095038213524</v>
+        <v>0.06435776853455868</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8727</v>
+        <v>7948</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02810519317947137</v>
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09529674806318834</v>
+        <v>0.08679812535602406</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -7193,19 +7193,19 @@
         <v>3401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9353</v>
+        <v>9306</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02176236932754045</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005266558462575251</v>
+        <v>0.005286371306896598</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05984414562192489</v>
+        <v>0.05954455759526487</v>
       </c>
     </row>
     <row r="18">
@@ -7222,19 +7222,19 @@
         <v>60927</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>55700</v>
+        <v>55978</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63856</v>
+        <v>63410</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9415170517682853</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8607426825155701</v>
+        <v>0.8650361350641366</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9867788569082295</v>
+        <v>0.9798844810949565</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -7243,7 +7243,7 @@
         <v>89000</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>82847</v>
+        <v>83626</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>91574</v>
@@ -7252,7 +7252,7 @@
         <v>0.9718948068205286</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9047032519368119</v>
+        <v>0.913201874643976</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -7264,19 +7264,19 @@
         <v>149927</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>143071</v>
+        <v>143138</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>153783</v>
+        <v>154125</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9593165664451681</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9154504698397385</v>
+        <v>0.9158795715388716</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.983988500907057</v>
+        <v>0.9861793334793928</v>
       </c>
     </row>
     <row r="19">
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -7436,19 +7436,19 @@
         <v>3449</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1092</v>
+        <v>1117</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8876</v>
+        <v>8336</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06825473493407272</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02160059662539661</v>
+        <v>0.02210233120491877</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1756605258380946</v>
+        <v>0.1649588190595603</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -7457,19 +7457,19 @@
         <v>4248</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9741</v>
+        <v>9469</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04587014071327666</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01218637380393256</v>
+        <v>0.01230004646808535</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.105185551514949</v>
+        <v>0.1022481786897397</v>
       </c>
     </row>
     <row r="22">
@@ -7486,7 +7486,7 @@
         <v>41281</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37589</v>
+        <v>37551</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>42080</v>
@@ -7495,7 +7495,7 @@
         <v>0.9810106183461662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.893284881792892</v>
+        <v>0.8923607074825712</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -7507,19 +7507,19 @@
         <v>47083</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41656</v>
+        <v>42196</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49440</v>
+        <v>49415</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9317452650659273</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.824339474161904</v>
+        <v>0.8350411809404334</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9783994033746033</v>
+        <v>0.9778976687950812</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -7528,19 +7528,19 @@
         <v>88364</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82871</v>
+        <v>83143</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91483</v>
+        <v>91473</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9541298592867233</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.894814448485051</v>
+        <v>0.897751821310261</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9878136261960674</v>
+        <v>0.9876999535319146</v>
       </c>
     </row>
     <row r="23">
@@ -7635,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4121</v>
+        <v>4153</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01704402829206288</v>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08507005083056837</v>
+        <v>0.0857145162962752</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -7653,19 +7653,19 @@
         <v>3741</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10045</v>
+        <v>9953</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05551047642020898</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01765623312857796</v>
+        <v>0.01736013881748826</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1490657519392185</v>
+        <v>0.1476985810382167</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -7674,19 +7674,19 @@
         <v>4566</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1282</v>
+        <v>1239</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10522</v>
+        <v>10841</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03942237495120893</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01106814665394599</v>
+        <v>0.0106942650746499</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09083473695780872</v>
+        <v>0.09359018431584427</v>
       </c>
     </row>
     <row r="25">
@@ -7703,19 +7703,19 @@
         <v>4050</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1589</v>
+        <v>1569</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8787</v>
+        <v>8313</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08360370588871441</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03279410817913907</v>
+        <v>0.03238597761534814</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1813719998081303</v>
+        <v>0.1715987590967908</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -7724,19 +7724,19 @@
         <v>7206</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2574</v>
+        <v>2443</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14363</v>
+        <v>14149</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1069394230487035</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03819801156618649</v>
+        <v>0.03625735302465508</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2131323034141834</v>
+        <v>0.2099615268101302</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -7745,19 +7745,19 @@
         <v>11257</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6083</v>
+        <v>5674</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18548</v>
+        <v>18639</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09717955688505092</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05251908549787299</v>
+        <v>0.0489805748127722</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.160126427888321</v>
+        <v>0.1609096056152123</v>
       </c>
     </row>
     <row r="26">
@@ -7774,19 +7774,19 @@
         <v>43570</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>39207</v>
+        <v>39349</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46789</v>
+        <v>46817</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8993522658192227</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8092843937567077</v>
+        <v>0.8122252476468725</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9657918572614121</v>
+        <v>0.9663691667297398</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -7795,19 +7795,19 @@
         <v>56441</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48286</v>
+        <v>48755</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>62164</v>
+        <v>62386</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8375501005310875</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7165441192748817</v>
+        <v>0.72350115658004</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9224756655866752</v>
+        <v>0.9257776415854244</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>99</v>
@@ -7816,19 +7816,19 @@
         <v>100011</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>91212</v>
+        <v>91119</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>106156</v>
+        <v>106751</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8633980681637402</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7874378671403506</v>
+        <v>0.7866341337323908</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.916450955705531</v>
+        <v>0.9215885978332601</v>
       </c>
     </row>
     <row r="27">
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5227</v>
+        <v>4784</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007953691099460973</v>
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04658934993354865</v>
+        <v>0.0426474792194118</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8629</v>
+        <v>9062</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01677290209424004</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05845292688190381</v>
+        <v>0.06138800388443204</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -7962,19 +7962,19 @@
         <v>3368</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9483</v>
+        <v>9698</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0129647858166939</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003438027344918511</v>
+        <v>0.003356206395217657</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03650000650133999</v>
+        <v>0.03732719935243003</v>
       </c>
     </row>
     <row r="29">
@@ -7991,19 +7991,19 @@
         <v>5661</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11449</v>
+        <v>12135</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05045966809913532</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01714257355748164</v>
+        <v>0.0171344232831274</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1020570606597755</v>
+        <v>0.1081718218868124</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -8012,19 +8012,19 @@
         <v>6086</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2128</v>
+        <v>2340</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13648</v>
+        <v>13984</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04122769350644363</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01441557945111147</v>
+        <v>0.01585241732680383</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09244811700069754</v>
+        <v>0.09472340618893348</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -8033,19 +8033,19 @@
         <v>11747</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6637</v>
+        <v>6000</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21382</v>
+        <v>20003</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04521404021491155</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02554721611621645</v>
+        <v>0.02309538688441686</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08229938277999586</v>
+        <v>0.07699208363995329</v>
       </c>
     </row>
     <row r="30">
@@ -8062,19 +8062,19 @@
         <v>105632</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>99351</v>
+        <v>99775</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>109416</v>
+        <v>109470</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9415866408014038</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8855964790713919</v>
+        <v>0.8893776533800153</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9753137527900838</v>
+        <v>0.9758018743873471</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>118</v>
@@ -8083,19 +8083,19 @@
         <v>139063</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>131056</v>
+        <v>129445</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>144049</v>
+        <v>143829</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9419994043993163</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8877654649040456</v>
+        <v>0.8768496985185018</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.975774854894267</v>
+        <v>0.9742848520876198</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>220</v>
@@ -8104,19 +8104,19 @@
         <v>244695</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>235608</v>
+        <v>235497</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>250845</v>
+        <v>251347</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9418211739683946</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9068480416408605</v>
+        <v>0.9064196662809796</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9654951592138109</v>
+        <v>0.96742673158486</v>
       </c>
     </row>
     <row r="31">
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8792</v>
+        <v>6796</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007611894012470978</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04987144734755322</v>
+        <v>0.03854581755620576</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7379</v>
+        <v>6693</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004322393677105665</v>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02376816995181288</v>
+        <v>0.021557048891728</v>
       </c>
     </row>
     <row r="33">
@@ -8271,19 +8271,19 @@
         <v>3409</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>7564</v>
+        <v>8654</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02541156485211958</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.006397560572409119</v>
+        <v>0.006428044035183516</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05637529872927653</v>
+        <v>0.06450283827978033</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -8292,19 +8292,19 @@
         <v>5268</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12542</v>
+        <v>13125</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02987962390356202</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.007515492435270454</v>
+        <v>0.007540919734376057</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07113945449892889</v>
+        <v>0.07444919850742293</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>8</v>
@@ -8313,19 +8313,19 @@
         <v>8677</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4219</v>
+        <v>3882</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>16413</v>
+        <v>16110</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0279487402464759</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0135893027962777</v>
+        <v>0.01250368654707093</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05286694609597552</v>
+        <v>0.05188928843102072</v>
       </c>
     </row>
     <row r="34">
@@ -8342,19 +8342,19 @@
         <v>130759</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>126604</v>
+        <v>125514</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>133310</v>
+        <v>133306</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9745884351478804</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9436247012707235</v>
+        <v>0.93549716172022</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9936024394275909</v>
+        <v>0.9935719559648165</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>137</v>
@@ -8363,19 +8363,19 @@
         <v>169687</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>161932</v>
+        <v>161414</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>173690</v>
+        <v>173688</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.962508482083967</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9185187859404321</v>
+        <v>0.9155778263372588</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9852149659665888</v>
+        <v>0.9852018050450945</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>274</v>
@@ -8384,19 +8384,19 @@
         <v>300446</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>291581</v>
+        <v>292050</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>305201</v>
+        <v>305360</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9677288660764184</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9391742024074794</v>
+        <v>0.9406855130012081</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9830434810039064</v>
+        <v>0.9835574951734676</v>
       </c>
     </row>
     <row r="35">
@@ -8488,19 +8488,19 @@
         <v>5477</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2113</v>
+        <v>2092</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11374</v>
+        <v>11823</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009261549240334146</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003573182694771393</v>
+        <v>0.003537932215953397</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01923483549367026</v>
+        <v>0.01999351645352997</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -8509,19 +8509,19 @@
         <v>13383</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>7091</v>
+        <v>7069</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>23757</v>
+        <v>23731</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01720346040234714</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.009115801351956894</v>
+        <v>0.009086512801062683</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03053932571576464</v>
+        <v>0.03050485454319023</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>16</v>
@@ -8530,19 +8530,19 @@
         <v>18860</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10601</v>
+        <v>11442</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>30162</v>
+        <v>30054</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01377366776525647</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.007741863271827797</v>
+        <v>0.008356449998219028</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02202818806661321</v>
+        <v>0.02194925302946781</v>
       </c>
     </row>
     <row r="37">
@@ -8559,19 +8559,19 @@
         <v>23524</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15994</v>
+        <v>15896</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>34032</v>
+        <v>34177</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03978118151313439</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02704814602470635</v>
+        <v>0.02688103692218831</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0575515790825916</v>
+        <v>0.05779786445730018</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>28</v>
@@ -8580,19 +8580,19 @@
         <v>34948</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>23807</v>
+        <v>25011</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>48305</v>
+        <v>50311</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04492491847575505</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03060349731855813</v>
+        <v>0.03215114421716757</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06209399331929879</v>
+        <v>0.06467267524717314</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -8601,19 +8601,19 @@
         <v>58472</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>45181</v>
+        <v>44853</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>73476</v>
+        <v>74996</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04270354495474278</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03299650412150031</v>
+        <v>0.03275704383322503</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05366084057600896</v>
+        <v>0.05477158781657473</v>
       </c>
     </row>
     <row r="38">
@@ -8630,19 +8630,19 @@
         <v>562328</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>551120</v>
+        <v>551194</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>571126</v>
+        <v>571412</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9509572692465315</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9320036797263731</v>
+        <v>0.9321285243676153</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9658362598610838</v>
+        <v>0.9663193441496558</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>617</v>
@@ -8651,19 +8651,19 @@
         <v>729599</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>713773</v>
+        <v>713049</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>742976</v>
+        <v>742614</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9378716211218978</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9175279514221117</v>
+        <v>0.9165962355355286</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9550669608794189</v>
+        <v>0.9546018739430425</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1211</v>
@@ -8672,19 +8672,19 @@
         <v>1291927</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1273906</v>
+        <v>1272896</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1308013</v>
+        <v>1308889</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9435227872800007</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9303613058133681</v>
+        <v>0.9296241851647191</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9552707591521544</v>
+        <v>0.9559105894845716</v>
       </c>
     </row>
     <row r="39">
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3872</v>
+        <v>3626</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0118573218876709</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06351865683639592</v>
+        <v>0.05948616663000394</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -9088,19 +9088,19 @@
         <v>4751</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2207</v>
+        <v>2165</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9048</v>
+        <v>8811</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07278670711524043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03380722466646711</v>
+        <v>0.03316670999222759</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1386183267967674</v>
+        <v>0.1349846193971017</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -9109,19 +9109,19 @@
         <v>5474</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2696</v>
+        <v>2811</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10485</v>
+        <v>10403</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04336496662187054</v>
+        <v>0.04336496662187055</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02135451535271965</v>
+        <v>0.0222694485058552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0830604165977689</v>
+        <v>0.08241591333963605</v>
       </c>
     </row>
     <row r="6">
@@ -9138,16 +9138,16 @@
         <v>60232</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57083</v>
+        <v>57329</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>60955</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9881426781123291</v>
+        <v>0.988142678112329</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9364813431636008</v>
+        <v>0.9405138333699961</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -9159,19 +9159,19 @@
         <v>60525</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>56228</v>
+        <v>56465</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63069</v>
+        <v>63111</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9272132928847596</v>
+        <v>0.9272132928847595</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8613816732032328</v>
+        <v>0.8650153806028983</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9661927753335331</v>
+        <v>0.9668332900077725</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>206</v>
@@ -9180,19 +9180,19 @@
         <v>120757</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>115746</v>
+        <v>115828</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>123535</v>
+        <v>123420</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9566350333781294</v>
+        <v>0.9566350333781295</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9169395834022311</v>
+        <v>0.917584086660364</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9786454846472803</v>
+        <v>0.9777305514941448</v>
       </c>
     </row>
     <row r="7">
@@ -9297,19 +9297,19 @@
         <v>4440</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1746</v>
+        <v>1774</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9366</v>
+        <v>8841</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.03280598633351133</v>
+        <v>0.03280598633351135</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01289918232206851</v>
+        <v>0.01310730728200054</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06920720238432686</v>
+        <v>0.0653330087344644</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -9318,19 +9318,19 @@
         <v>4440</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1236</v>
+        <v>1741</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9113</v>
+        <v>9784</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01984596384980108</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005524318263432419</v>
+        <v>0.00778362325118993</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04073739238027391</v>
+        <v>0.04373692064957271</v>
       </c>
     </row>
     <row r="9">
@@ -9350,16 +9350,16 @@
         <v>1836</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10344</v>
+        <v>10166</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05274352980046172</v>
+        <v>0.05274352980046173</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02077875589442989</v>
+        <v>0.02077674181094709</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1170460733168446</v>
+        <v>0.1150299017426075</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -9368,19 +9368,19 @@
         <v>14535</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9179</v>
+        <v>9606</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21301</v>
+        <v>21211</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1074030310986621</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06782805155859668</v>
+        <v>0.07098618539717627</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1574017188848416</v>
+        <v>0.1567391991922087</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -9389,19 +9389,19 @@
         <v>19196</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13153</v>
+        <v>12881</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27479</v>
+        <v>26981</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0858097658155681</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05879761550687806</v>
+        <v>0.05757911534722138</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1228401054588196</v>
+        <v>0.1206124994772444</v>
       </c>
     </row>
     <row r="10">
@@ -9418,7 +9418,7 @@
         <v>83712</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78029</v>
+        <v>78207</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>86537</v>
@@ -9427,10 +9427,10 @@
         <v>0.9472564701995383</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8829539266831552</v>
+        <v>0.8849700982573923</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9792212441055701</v>
+        <v>0.979223258189053</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>195</v>
@@ -9439,19 +9439,19 @@
         <v>116354</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108832</v>
+        <v>109530</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122308</v>
+        <v>122313</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8597909825678266</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8042063242328733</v>
+        <v>0.8093702266295607</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9037893252229795</v>
+        <v>0.9038257595447161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>285</v>
@@ -9460,19 +9460,19 @@
         <v>200066</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>190880</v>
+        <v>190642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>207050</v>
+        <v>206843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8943442703346307</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8532829082755473</v>
+        <v>0.8522184815154036</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9255676144211918</v>
+        <v>0.92464238633161</v>
       </c>
     </row>
     <row r="11">
@@ -9564,19 +9564,19 @@
         <v>2395</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5695</v>
+        <v>5687</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03313563190024835</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008493668996288043</v>
+        <v>0.008905579953670697</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07878396359766285</v>
+        <v>0.07867963600370113</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -9585,19 +9585,19 @@
         <v>1493</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4127</v>
+        <v>4408</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01739553600418592</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004663284838818755</v>
+        <v>0.004624645548740829</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0480742590354941</v>
+        <v>0.05134374932134222</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -9606,19 +9606,19 @@
         <v>3889</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1674</v>
+        <v>1718</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7430</v>
+        <v>7982</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02459047950521033</v>
+        <v>0.02459047950521034</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0105862864209711</v>
+        <v>0.01086389428613398</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04698741057962946</v>
+        <v>0.05047784451444254</v>
       </c>
     </row>
     <row r="13">
@@ -9635,19 +9635,19 @@
         <v>4993</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2342</v>
+        <v>2332</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8958</v>
+        <v>9088</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06906702104239579</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03240607706712727</v>
+        <v>0.0322614994902324</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1239200077462113</v>
+        <v>0.1257263135855983</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -9656,19 +9656,19 @@
         <v>10342</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6857</v>
+        <v>6760</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14960</v>
+        <v>15349</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1204673441513046</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07987490894971377</v>
+        <v>0.07874419652354001</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1742580998231851</v>
+        <v>0.1787901951098684</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -9677,19 +9677,19 @@
         <v>15335</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10795</v>
+        <v>10896</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21148</v>
+        <v>21261</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09697178077322413</v>
+        <v>0.09697178077322414</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06826359868486856</v>
+        <v>0.06890467656008313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1337368216045152</v>
+        <v>0.1344508946282034</v>
       </c>
     </row>
     <row r="14">
@@ -9706,19 +9706,19 @@
         <v>64897</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60741</v>
+        <v>60665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68287</v>
+        <v>68361</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.897797347057356</v>
+        <v>0.8977973470573559</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.840304841366377</v>
+        <v>0.8392539951434503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9446854943198104</v>
+        <v>0.9457125774455973</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>145</v>
@@ -9727,19 +9727,19 @@
         <v>74014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69366</v>
+        <v>68896</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77808</v>
+        <v>78025</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8621371198445096</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8079953591636114</v>
+        <v>0.8025171766949389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9063202587503724</v>
+        <v>0.9088576462490412</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>254</v>
@@ -9748,19 +9748,19 @@
         <v>138912</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>133217</v>
+        <v>132978</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>144389</v>
+        <v>144032</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8784377397215655</v>
+        <v>0.8784377397215654</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8424238747680431</v>
+        <v>0.8409121316541889</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.913075493621991</v>
+        <v>0.9108170474198822</v>
       </c>
     </row>
     <row r="15">
@@ -9865,19 +9865,19 @@
         <v>2163</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4420</v>
+        <v>4427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01957539201341707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007646178855336047</v>
+        <v>0.00752025101337581</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03999776682693981</v>
+        <v>0.04005851978702053</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -9886,19 +9886,19 @@
         <v>2163</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>795</v>
+        <v>849</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4561</v>
+        <v>5001</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01116985639042635</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004103842316043903</v>
+        <v>0.004383109271302462</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02354931586524573</v>
+        <v>0.02582340012234164</v>
       </c>
     </row>
     <row r="17">
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2939</v>
+        <v>3288</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007749956082851173</v>
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03534581218589911</v>
+        <v>0.03954257513855641</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -9936,19 +9936,19 @@
         <v>2743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5381</v>
+        <v>5293</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02481996802449581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01046132218389328</v>
+        <v>0.01031035365395812</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04869173066051476</v>
+        <v>0.04790030081711791</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -9957,19 +9957,19 @@
         <v>3387</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1461</v>
+        <v>1607</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6485</v>
+        <v>6456</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01749022497965526</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007542438794472694</v>
+        <v>0.008298215941355649</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03348840881523798</v>
+        <v>0.03333732590253669</v>
       </c>
     </row>
     <row r="18">
@@ -9986,7 +9986,7 @@
         <v>82512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80217</v>
+        <v>79868</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>83156</v>
@@ -9995,7 +9995,7 @@
         <v>0.9922500439171489</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9646541878141012</v>
+        <v>0.9604574248614446</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -10007,19 +10007,19 @@
         <v>105598</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>102430</v>
+        <v>102055</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>107672</v>
+        <v>107915</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9556046399620871</v>
+        <v>0.9556046399620872</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9269369999070977</v>
+        <v>0.9235408313201137</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9743749722252825</v>
+        <v>0.9765666940091946</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>361</v>
@@ -10028,19 +10028,19 @@
         <v>188110</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>184647</v>
+        <v>184178</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>190510</v>
+        <v>190666</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9713399186299183</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9534602660971579</v>
+        <v>0.9510361270387229</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9837356746285569</v>
+        <v>0.9845380407383465</v>
       </c>
     </row>
     <row r="19">
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3104</v>
+        <v>2755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01442472941008086</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05043518777932211</v>
+        <v>0.04476527668091106</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3086</v>
+        <v>3038</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009054274298194821</v>
@@ -10178,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03147692632420233</v>
+        <v>0.03098567713721491</v>
       </c>
     </row>
     <row r="21">
@@ -10195,19 +10195,19 @@
         <v>3543</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6595</v>
+        <v>6916</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09706209396048125</v>
+        <v>0.09706209396048121</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04143501607261094</v>
+        <v>0.04147253383219494</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1806620515224156</v>
+        <v>0.1894553446520256</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -10216,19 +10216,19 @@
         <v>6109</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3492</v>
+        <v>3631</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9413</v>
+        <v>9668</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09927024992815399</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05674233545718663</v>
+        <v>0.05900229066392785</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.152958544083383</v>
+        <v>0.1570977662869092</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -10237,19 +10237,19 @@
         <v>9652</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6151</v>
+        <v>6544</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14352</v>
+        <v>14096</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.09844813381302311</v>
+        <v>0.0984481338130231</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06274084029200054</v>
+        <v>0.06674302296121237</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1463783189199133</v>
+        <v>0.1437697708175819</v>
       </c>
     </row>
     <row r="22">
@@ -10266,19 +10266,19 @@
         <v>32960</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29908</v>
+        <v>29587</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34990</v>
+        <v>34989</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9029379060395188</v>
+        <v>0.9029379060395183</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8193379484775843</v>
+        <v>0.8105446553479758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9585649839273892</v>
+        <v>0.9585274661678049</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>148</v>
@@ -10287,19 +10287,19 @@
         <v>54545</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51118</v>
+        <v>50869</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57292</v>
+        <v>57276</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8863050206617651</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8306180697935847</v>
+        <v>0.8265808406086652</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9309428333372745</v>
+        <v>0.9306785873278179</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>212</v>
@@ -10308,19 +10308,19 @@
         <v>87505</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82814</v>
+        <v>82882</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91074</v>
+        <v>90830</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8924975918887822</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8446579431214364</v>
+        <v>0.8453434818707091</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9288963962396775</v>
+        <v>0.9264075868568241</v>
       </c>
     </row>
     <row r="23">
@@ -10412,19 +10412,19 @@
         <v>1504</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4002</v>
+        <v>3795</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02498060767940158</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00787114978297683</v>
+        <v>0.007845291944073844</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06644604998559582</v>
+        <v>0.06301280610136339</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -10433,19 +10433,19 @@
         <v>4045</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2046</v>
+        <v>2176</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7115</v>
+        <v>7412</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0600985622063986</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03039502259820996</v>
+        <v>0.0323328067708208</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1057117013349872</v>
+        <v>0.1101193392115755</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -10454,19 +10454,19 @@
         <v>5550</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3125</v>
+        <v>3238</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8979</v>
+        <v>8895</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04351505827009648</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02450316557299711</v>
+        <v>0.02539014749044126</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0704076376359704</v>
+        <v>0.06974742410785888</v>
       </c>
     </row>
     <row r="25">
@@ -10483,19 +10483,19 @@
         <v>2869</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1164</v>
+        <v>1243</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5433</v>
+        <v>5376</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04763592011523556</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0193275085668864</v>
+        <v>0.02064424124820777</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09021936092635861</v>
+        <v>0.08926775548499834</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -10504,19 +10504,19 @@
         <v>6579</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3936</v>
+        <v>4238</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9376</v>
+        <v>9757</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09774733181782004</v>
+        <v>0.09774733181782003</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05847600175605291</v>
+        <v>0.06296831926834431</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1393005250473664</v>
+        <v>0.144959398377366</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -10525,19 +10525,19 @@
         <v>9448</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6105</v>
+        <v>6480</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13028</v>
+        <v>13455</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07408357336672303</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04786657689994167</v>
+        <v>0.05080893128317156</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1021526320367491</v>
+        <v>0.1055011163417324</v>
       </c>
     </row>
     <row r="26">
@@ -10554,19 +10554,19 @@
         <v>55851</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52770</v>
+        <v>52923</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57912</v>
+        <v>57887</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9273834722053629</v>
+        <v>0.927383472205363</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8762361882808903</v>
+        <v>0.8787711259918413</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9616042605866145</v>
+        <v>0.9611941383224784</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>146</v>
@@ -10575,19 +10575,19 @@
         <v>56685</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52954</v>
+        <v>52726</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60148</v>
+        <v>59896</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8421541059757816</v>
+        <v>0.8421541059757814</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7867237311759141</v>
+        <v>0.7833437293692778</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8936100151891855</v>
+        <v>0.8898640541697143</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>270</v>
@@ -10596,19 +10596,19 @@
         <v>112534</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>108097</v>
+        <v>107941</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>116587</v>
+        <v>116429</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8824013683631805</v>
+        <v>0.8824013683631804</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8476077688952052</v>
+        <v>0.8463871021463732</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.914175657211078</v>
+        <v>0.9129356827658389</v>
       </c>
     </row>
     <row r="27">
@@ -10703,16 +10703,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6512</v>
+        <v>6607</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.008810937203108334</v>
+        <v>0.008810937203108335</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04302812472105228</v>
+        <v>0.04365492248147392</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -10724,16 +10724,16 @@
         <v>2008</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8854</v>
+        <v>9947</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02850881589305391</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01223840303315682</v>
+        <v>0.01223957018313973</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05396223407091319</v>
+        <v>0.0606246319576391</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -10742,19 +10742,19 @@
         <v>6011</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2659</v>
+        <v>2643</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11941</v>
+        <v>11358</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01905766052204938</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008429430431942567</v>
+        <v>0.00837899772202899</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03785587839391662</v>
+        <v>0.03600821990030745</v>
       </c>
     </row>
     <row r="29">
@@ -10774,16 +10774,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4364</v>
+        <v>4420</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.005782770461845842</v>
+        <v>0.005782770461845843</v>
       </c>
       <c r="H29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0288366281498318</v>
+        <v>0.02920844375213309</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -10792,19 +10792,19 @@
         <v>7919</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3885</v>
+        <v>4024</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13082</v>
+        <v>14186</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04826323290808091</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02367734511089312</v>
+        <v>0.02452572207757108</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07972786059820376</v>
+        <v>0.08645950164267388</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -10813,19 +10813,19 @@
         <v>8794</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5175</v>
+        <v>5219</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15373</v>
+        <v>14837</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02788086295184679</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01640801392225119</v>
+        <v>0.01654482306441474</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04873697375013524</v>
+        <v>0.04703808566085318</v>
       </c>
     </row>
     <row r="30">
@@ -10842,7 +10842,7 @@
         <v>149132</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>144438</v>
+        <v>143860</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>151341</v>
@@ -10851,7 +10851,7 @@
         <v>0.9854062923350458</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9543871963328823</v>
+        <v>0.9505702575098226</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -10863,19 +10863,19 @@
         <v>151484</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>145105</v>
+        <v>144254</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>156615</v>
+        <v>156365</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9232279511988652</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8843502708749995</v>
+        <v>0.8791604904257592</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9544989719190592</v>
+        <v>0.9529721843150548</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>389</v>
@@ -10884,19 +10884,19 @@
         <v>300617</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>293083</v>
+        <v>293560</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>306163</v>
+        <v>306002</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9530614765261041</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.929178811314617</v>
+        <v>0.9306899161481546</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9706460382755132</v>
+        <v>0.9701343265057396</v>
       </c>
     </row>
     <row r="31">
@@ -10991,16 +10991,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2656</v>
+        <v>3688</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.004027551061653866</v>
+        <v>0.004027551061653865</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01623955076825504</v>
+        <v>0.02254776023904915</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3287</v>
+        <v>3944</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.001750431990028645</v>
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008734126750876786</v>
+        <v>0.0104796434218633</v>
       </c>
     </row>
     <row r="33">
@@ -11051,19 +11051,19 @@
         <v>2007</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6013</v>
+        <v>5975</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01227033939857168</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.004032090066865876</v>
+        <v>0.004016560634248561</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03676576045856077</v>
+        <v>0.03653436808205098</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>9</v>
@@ -11072,19 +11072,19 @@
         <v>6874</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3009</v>
+        <v>3036</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>13741</v>
+        <v>14212</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.03230864361245493</v>
+        <v>0.03230864361245491</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01414056630911613</v>
+        <v>0.01426823935257445</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06458181863686277</v>
+        <v>0.06679680076011629</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>12</v>
@@ -11093,19 +11093,19 @@
         <v>8881</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4472</v>
+        <v>4748</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>15674</v>
+        <v>15962</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02359970654748234</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01188229630927455</v>
+        <v>0.01261591024412022</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04165012336747254</v>
+        <v>0.04241663329012355</v>
       </c>
     </row>
     <row r="34">
@@ -11122,19 +11122,19 @@
         <v>160888</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>157088</v>
+        <v>156912</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>162879</v>
+        <v>162892</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9837021095397744</v>
+        <v>0.9837021095397742</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.960466485593652</v>
+        <v>0.9593907217098313</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9958701997399043</v>
+        <v>0.9959545742397272</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>334</v>
@@ -11143,19 +11143,19 @@
         <v>205892</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>199025</v>
+        <v>198554</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>209757</v>
+        <v>209730</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9676913563875452</v>
+        <v>0.967691356387545</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9354181813631374</v>
+        <v>0.9332031992398838</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9858594336908838</v>
+        <v>0.9857317606474255</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>565</v>
@@ -11164,19 +11164,19 @@
         <v>366781</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>359914</v>
+        <v>359651</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>371396</v>
+        <v>371341</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.974649861462489</v>
+        <v>0.9746498614624892</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9564012298270995</v>
+        <v>0.9557024333332325</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9869127163760505</v>
+        <v>0.9867677075366192</v>
       </c>
     </row>
     <row r="35">
@@ -11268,19 +11268,19 @@
         <v>5892</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2854</v>
+        <v>2732</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11840</v>
+        <v>11547</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.008224292395519091</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003983453279132653</v>
+        <v>0.003813164735550636</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01652713431020343</v>
+        <v>0.01611880254934312</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>33</v>
@@ -11289,19 +11289,19 @@
         <v>17707</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>12401</v>
+        <v>12335</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>24881</v>
+        <v>24300</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01961628275669963</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01373820758860515</v>
+        <v>0.01366517365861138</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02756377284141548</v>
+        <v>0.02692013097108242</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>43</v>
@@ -11310,19 +11310,19 @@
         <v>23599</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>17157</v>
+        <v>17113</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>31598</v>
+        <v>32725</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01457558519912852</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01059669886172721</v>
+        <v>0.01056976378828293</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.019516493302466</v>
+        <v>0.02021239267451483</v>
       </c>
     </row>
     <row r="37">
@@ -11339,19 +11339,19 @@
         <v>20315</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14129</v>
+        <v>14039</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28619</v>
+        <v>28824</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02835703768019497</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01972241511098157</v>
+        <v>0.01959671998706744</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03994845181074397</v>
+        <v>0.04023468161484554</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>114</v>
@@ -11360,19 +11360,19 @@
         <v>59852</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>50319</v>
+        <v>48572</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>72515</v>
+        <v>71990</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06630709410687313</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05574604504182804</v>
+        <v>0.05381028555217597</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08033512849372412</v>
+        <v>0.07975389629058886</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>148</v>
@@ -11381,19 +11381,19 @@
         <v>80167</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>68342</v>
+        <v>67632</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>95079</v>
+        <v>94796</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04951505420210807</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04221131145489716</v>
+        <v>0.04177275822891852</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05872518108705984</v>
+        <v>0.05855033166064243</v>
       </c>
     </row>
     <row r="38">
@@ -11410,19 +11410,19 @@
         <v>690184</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>680384</v>
+        <v>680406</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>697447</v>
+        <v>697754</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.963418669924286</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9497383891355211</v>
+        <v>0.9497683856064113</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9735568810441592</v>
+        <v>0.9739849515610464</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1559</v>
@@ -11431,19 +11431,19 @@
         <v>825096</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>810878</v>
+        <v>812847</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>836806</v>
+        <v>837748</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.9140766231364272</v>
+        <v>0.9140766231364271</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8983250566438407</v>
+        <v>0.9005072109619572</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9270500524061429</v>
+        <v>0.9280927612106401</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2542</v>
@@ -11452,19 +11452,19 @@
         <v>1515280</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1498610</v>
+        <v>1498192</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1529281</v>
+        <v>1528875</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9359093605987634</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9256128834683455</v>
+        <v>0.925354929209504</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9445568754978759</v>
+        <v>0.9443062618950928</v>
       </c>
     </row>
     <row r="39">
